--- a/core_protocol_strings.xlsx
+++ b/core_protocol_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adbiran\Documents\HBS\COVID-19\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B6BF1-F8E8-40F7-A8B1-87FCD532C35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D91CD2-F90E-411B-81F5-7A6E551A1B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="308">
   <si>
     <t>String ID</t>
   </si>
@@ -405,6 +405,978 @@
     <t>In the two weeks before they felt sick, did they:
 - Have contact with someone diagnosed with COVID-19
 - Live in or visit a place where COVID-19 is spreading</t>
+  </si>
+  <si>
+    <t>ru-ru</t>
+  </si>
+  <si>
+    <t>Для продолжения выберите один из вариантов</t>
+  </si>
+  <si>
+    <t>**Выберите что-нибудь, чтобы мы могли дать вам совет по обращению за медицинской помощью.**
+Вы ничего не выбрали. Начните заново и выберите ответы на каждый вопрос, чтобы мы могли дать вам совет по обращению за медицинской помощью.</t>
+  </si>
+  <si>
+    <t>**Похоже, вы чувствуете себя нормально**
+Система самопроверки на коронавирус (coronavirus) предназначена для людей, которые испытывают недомогание. Узнать больше о COVID-19 и о том, что вы можете сделать для борьбы с его распространением, вы можете на [веб-сайте CDC] (на английском языке)(https://www.cdc.gov/coronavirus/2019-ncov/index.html).</t>
+  </si>
+  <si>
+    <t>**Звоните в экстренную службу. Возможно, у вас неотложное медицинское состояние.**
+Звоните в экстренную службу прямо сейчас. Вам необходима немедленная медицинская помощь. 
+Если вы контактировали с зараженными COVID-19 людьми или недавно были в регионе, где наблюдается вспышка COVID-19, сообщите об этом оператору экстренной службы.</t>
+  </si>
+  <si>
+    <t>**К сожалению, система самопроверки на коронавирус (coronavirus) не предназначена для детей младше 2 лет.**
+Позвоните поставщику услуг здравоохранения своего ребенка прямо сегодня. Если заболевший ребенок контактировал с зараженными COVID-19 людьми или недавно был в регионе, где наблюдается вспышка COVID-19, сообщите об этом поставщику услуг здравоохранения.</t>
+  </si>
+  <si>
+    <t>**Вам может быть необходима срочная медицинская помощь. Обратитесь в отделение неотложной помощи.**
+Судя по вашим симптомам, вам может быть необходима срочная медицинская помощь. Обратитесь в ближайшее отделение неотложной помощи.
+Если вы контактировали с зараженными COVID-19 людьми или недавно были в регионе, где наблюдается вспышка COVID-19, сообщите об этом персоналу отделения неотложной помощи.</t>
+  </si>
+  <si>
+    <t>**Очень жаль, что вам нездоровится. Позвоните поставщику услуг здравоохранения в течение 24 часов.**
+Некоторые из ваших симптомов могут указывать на COVID-19. У вас также есть заболевания или состояния, которые повышают риск осложнений при COVID-19. Позвоните своему поставщику услуг здравоохранения, на медицинскую горячую линию или в телемедицинское учреждение в течение 24 часов.  Самоизолируйтесь дома. Это означает оставаться дома, кроме обращения за медицинской помощью, и не ходить на работу, на учебу или в общественные места. Не пользуйтесь общественным транспортом и не ездите в автомобиле с другими людьми. Если вы почувствуете себя хуже, обязательно обратитесь за медицинской помощью.
+Для ухода за собой следуйте инструкциям [здесь] (на английском языке)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+Следуйте инструкциям [здесь] (на английском языке), чтобы уберечь от заражения других людей(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).</t>
+  </si>
+  <si>
+    <t>**Немедленно свяжитесь со специалистом по гигиене труда у себя на работе.**
+Как можно скорее свяжитесь со специалистом по гигиене труда в своем учреждении. 
+Сообщите специалисту по гигиене труда, что у вас есть симптомы, которые могут указывать на COVID-19.</t>
+  </si>
+  <si>
+    <t>**Обратитесь к поставщику услуг здравоохранения в учреждении длительного пребывания, где вы проживаете.**
+Проживание в учреждении длительного пребывания или доме престарелых повышает риск серьезного заболевания. Скажите работнику учреждения, что вы плохо себя чувствуете, и вам нужно как можно быстрее показаться врачу.
+Примите меры, чтобы уберечь от заражения других людей:
+- Оставайтесь в своей комнате, кроме обращения за медицинской помощью.
+- Прикрывайте рот, когда чихаете или кашляете.
+- Часто мойте руки или обрабатывайте их дезинфицирующими средствами.</t>
+  </si>
+  <si>
+    <t>**Оставайтесь дома и лечитесь симптоматически. Если вам станет хуже, звоните своему врачу.**
+Очень жаль, что вы плохо себя чувствуете. Один или более из ваших симптомов могут указывать на COVID-19. Оставайтесь дома и лечитесь симптоматически. 
+Прочитайте [10 правил лечения дома] (на английском языке)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+Следуйте инструкциям [здесь] (на английском языке), чтобы уберечь от заражения других людей(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).</t>
+  </si>
+  <si>
+    <t>**Оставайтесь дома и лечитесь симптоматически в самоизоляции. Позвоните поставщику услуг здравоохранения в течение 24 часов.**
+Очень жаль, что вы плохо себя чувствуете. Один или более из ваших симптомов могут указывать на COVID-19. Оставайтесь дома и лечитесь симптоматически. Позвоните своему поставщику услуг здравоохранения, на медицинскую горячую линию или в телемедицинское учреждение в течение 24 часов. Самоизолируйтесь дома. Это означает оставаться дома, кроме обращения за медицинской помощью, и не ходить на работу, на учебу или в общественные места. Не пользуйтесь общественным транспортом и не ездите в автомобиле с другими людьми. Если вы почувствуете себя хуже или вам покажется, что ситуация становится неотложной, обязательно обратитесь за помощью.
+Для ухода за собой следуйте инструкциям [здесь] (на английском языке)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+Следуйте инструкциям [здесь] (на английском языке), чтобы уберечь от заражения других людей(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).
+Прочитайте [10 правил лечения дома] (на английском языке)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) и лечитесь симптоматически дома.</t>
+  </si>
+  <si>
+    <t>**Очень жаль, что вы плохо себя чувствуете. Оставайтесь дома и следите за своими симптомами. Если вам станет хуже, звоните своему врачу.**
+Продолжайте следить за своими симптомами. В случае ухудшения состояния звоните своему поставщику услуг здравоохранения, на медицинскую горячую линию или в телемедицинское учреждение. 
+Некоторые советы, которые могут помочь вам почувствовать себя лучше:
+- Останьтесь дома и отдохните. 
+- Пейте много воды или других прозрачных жидкостей во избежание обезвоживания.
+- Прикрывайте рот, когда чихаете или кашляете. 
+- Часто мойте руки или обрабатывайте их дезинфицирующими средствами.</t>
+  </si>
+  <si>
+    <t>["Я согласен/согласна", "Я не согласен/не согласна"]</t>
+  </si>
+  <si>
+    <t>Необходимо указать, где вы (или человек, за которого вы отвечаете на вопросы), находитесь.</t>
+  </si>
+  <si>
+    <t>Где именно в США вы (или человек, за которого вы отвечаете на вопросы) находитесь?</t>
+  </si>
+  <si>
+    <t>Вы больны сами или ухаживаете за больным?</t>
+  </si>
+  <si>
+    <t>Вы отвечаете на вопросы за себя или за другого человека?</t>
+  </si>
+  <si>
+    <t>Отправить</t>
+  </si>
+  <si>
+    <t>Есть ли у вас что-либо из перечисленного? (Отметьте любое количество вариантов.)</t>
+  </si>
+  <si>
+    <t>Есть ли у вас какие-либо из перечисленных симптомов, представляющих угрозу для жизни?</t>
+  </si>
+  <si>
+    <t>Есть ли у вас что-либо из перечисленного?</t>
+  </si>
+  <si>
+    <t>Проживаете ли вы в учреждении длительного пребывания или доме престарелых?</t>
+  </si>
+  <si>
+    <t>В течение последних двух недель случалось ли вам работать или волонтерствовать в больнице, отделении неотложной помощи, клинике, медицинском пункте или кабинете, учреждении длительного пребывания или доме престарелых, службе скорой помощи или службах экстренного реагирования или ином подобном учреждении либо ухаживать за пациентами в качестве студента или в рамках своей работы?</t>
+  </si>
+  <si>
+    <t>Укажите свой возраст.</t>
+  </si>
+  <si>
+    <t>Укажите свой пол.</t>
+  </si>
+  <si>
+    <t>Есть ли у вас какие-либо из перечисленных заболеваний или состояний? (Отметьте любое количество вариантов.)</t>
+  </si>
+  <si>
+    <t>В течение двух недель до того, как вы заболели, случалось ли вам:
+- Контактировать с кем-либо, у кого диагностировали COVID-19
+- Жить в месте, где наблюдается вспышка COVID-19, или посещать такое место</t>
+  </si>
+  <si>
+    <t>Есть ли у этого человека что-либо из перечисленного? (Отметьте любое количество вариантов.)</t>
+  </si>
+  <si>
+    <t>Есть ли у этого человека какие-либо из перечисленных симптомов, представляющих угрозу для жизни?</t>
+  </si>
+  <si>
+    <t>Есть ли у этого человека что-либо из перечисленного?</t>
+  </si>
+  <si>
+    <t>Проживает ли этот человек в учреждении длительного пребывания или доме престарелых?</t>
+  </si>
+  <si>
+    <t>В течение последних двух недель случалось ли этому человеку работать или волонтерствовать в больнице, отделении неотложной помощи, клинике, медицинском пункте или кабинете, учреждении длительного пребывания или доме престарелых, службе скорой помощи или службах экстренного реагирования или ином подобном учреждении либо ухаживать за пациентами в качестве студента или в рамках своей работы?</t>
+  </si>
+  <si>
+    <t>Укажите возраст этого человека.</t>
+  </si>
+  <si>
+    <t>Укажите пол этого человека.</t>
+  </si>
+  <si>
+    <t>Есть ли у этого человека какие-либо из перечисленных заболеваний или состояний? (Отметьте любое количество вариантов.)</t>
+  </si>
+  <si>
+    <t>В течение двух недель до того, как этот человек заболел, случалось ли ему:
+- Контактировать с кем-либо, у кого диагностировали COVID-19
+- Жить в месте, где наблюдается вспышка COVID-19, или посещать такое место</t>
+  </si>
+  <si>
+    <t>Беременность</t>
+  </si>
+  <si>
+    <t>he-il</t>
+  </si>
+  <si>
+    <t>בחר אפשרות כדי להמשיך</t>
+  </si>
+  <si>
+    <t>**נא בצע בחירה כדי שאוכל לעזור לספק לך ייעוץ בנוגע לטיפול.**
+לא ביצעת בחירה. התחל שוב ובחר אפשרויות עבור כל שאלה כדי שאוכל לעזור לספק לך ייעוץ בנוגע לטיפול.</t>
+  </si>
+  <si>
+    <t>**נראה שאתה מרגיש בסדר**
+מערכת זו לבדיקה עצמית של הידבקות בנגיף הקורונה (Coronavirus) מיועדת לאנשים שייתכן כי חלו. קבל מידע נוסף על נגיף הקורונה (COVID-19) ולמד כיצד תוכל לעזור ב[אתר האינטרנט של CDC] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/index.html).</t>
+  </si>
+  <si>
+    <t>**התקשר לשירות החירום המקומי - ייתכן שאתה במצב חירום רפואי.**
+התקשר לשירות החירום המקומי עכשיו. נדרשת תשומת לב רפואית מיידית. 
+ספר למרכזן שירות החירום המקומי אם היית במגע עם מישהו שנדבק ב- COVID-19 או אם היית לאחרונה באזור התפרצות של COVID-19.</t>
+  </si>
+  <si>
+    <t>**מצטערים, מערכת זו לבדיקה עצמית של הידבקות בנגיף הקורונה (Coronavirus) מיועדת לאנשים בני שנתיים לפחות.**
+התקשר לספק שירותי הרפואה של ילדך עוד היום. ספר לו אם ילדך החולה היה במגע עם מישהו שנדבק ב- COVID-19 או אם הוא היה לאחרונה באזור התפרצות של COVID-19.</t>
+  </si>
+  <si>
+    <t>**ייתכן שנדרשת תשומת לב רפואית דחופה. לך למוקד הרפואה הדחופה**
+בהתבסס על התסמינים שלך, ייתכן שנדרשת תשומת לב רפואית דחופה. לך למוקד הרפואה הדחופה הקרוב ביותר.
+ספר לצוות החירום אם היית במגע עם מישהו שנדבק ב- COVID-19 או אם היית לאחרונה באזור התפרצות של COVID-19.</t>
+  </si>
+  <si>
+    <t>**אנחנו מצטערים שאתה מרגיש חולה. התקשר לספק שירותי בריאות תוך 24 שעות**
+יש לך תסמינים שעשויים להיות קשורים ל- COVID-19. יש לך גם מחלות/בעיות רפואיות שעלולות להעמיד אותך בסיכון גבוה יותר לסיבוכים מ- COVID-19. התקשר לספק שירותי הרפואה, קו הייעוץ הקליני או ספק הטלרפואה שלך תוך 24 שעות.  התחל בידוד ביתי. משמעות הדבר להישאר בבית למעט כדי לקבל טיפול רפואי, ולא ללכת לעבודה, ללימודים או לאזורים ציבוריים. אל תשתמש בתחבורה הציבורית או בתחבורה שיתופית. דאג לקבל טיפול אם אתה מרגיש גרוע יותר
+נקוט צעדים אלה עכשיו כדי לעזור [לטפל בעצמך] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+נקוט צעדים אלה עכשיו כדי לעזור [להגן על אנשים אחרים מפני הידבקות במחלה] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).</t>
+  </si>
+  <si>
+    <t>**פנה לספק שירותי הרפואה התעסוקתית במקום העבודה שלך באופן מיידי**
+פנה לספק שירותי הרפואה התעסוקתית במתקן שירותי הרפואה שלך בהקדם האפשרי. 
+ספר לספק שירותי הרפואה התעסוקתית שיש לך תסמינים שעשויים להיות קשורים ל- COVID-19.</t>
+  </si>
+  <si>
+    <t>**פנה לספק שירותי רפואה במתקן הטיפול הרפואי לטווח ארוך שבו אתה שוהה**
+שהייה במתקן טיפול רפואי או במוסד סיעודי לטווח ארוך עלולה להעמיד אותך בסיכון גבוה יותר למחלה חמורה. ספר למטפל במתקן שאתה חולה ושאתה צריך לראות ספק שירותי בריאות בהקדם האפשרי.
+עזור להגן על אנשים אחרים מפני הידבקות המחלה:
+- הישאר בחדרך למעט כדי לקבל טיפול רפואי
+- כסה את השיעולים וההתעטשויות שלך
+- נקה את ידיך לעתים קרובות</t>
+  </si>
+  <si>
+    <t>**הישאר בבית וטפל בעצמך. התקשר לספק שלך אם מצבך מורע**
+אנחנו מצטערים שאתה מרגיש חולה. יש לך תסמין אחד או יותר שעשוי להיות קשור ל- COVID-19. הישאר בבית וטפל בעצמך. 
+קרא את הדף [10 דרכים לנהל את בריאותך] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) בבית.
+נקוט צעדים אלה עכשיו כדי לעזור [להגן על אנשים אחרים מפני הידבקות במחלה] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html)</t>
+  </si>
+  <si>
+    <t>**הישאר בבית וטפל בעצמך בבידוד ביתי. התקשר לספק שירותי בריאות תוך 24 שעות**
+אנחנו מצטערים שאתה מרגיש חולה. יש לך תסמין אחד או יותר שעשוי להיות קשור ל- COVID-19. הישאר בבית וטפל בעצמך. התקשר לספק שירותי הרפואה, קו הייעוץ הקליני או ספק הטלרפואה שלך תוך 24 שעות. התחל בידוד ביתי. משמעות הדבר להישאר בבית למעט כדי לקבל טיפול רפואי, ולא ללכת לעבודה, ללימודים או לאזורים ציבוריים. אל תשתמש בתחבורה הציבורית או בתחבורה שיתופית. דאג לקבל טיפול אם אתה מרגיש גרוע יותר או שאתה סבור שמדובר במקרה חירום.
+נקוט צעדים אלה עכשיו כדי לעזור [לטפל בעצמך] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+נקוט צעדים אלה עכשיו כדי לעזור [להגן על אנשים אחרים מפני הידבקות במחלה] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).
+קרא את הדף [10 דרכים לנהל את בריאותך] (באנגלית)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) וטפל בעצמך בבית.</t>
+  </si>
+  <si>
+    <t>**אנחנו מצטערים שאתה מרגיש חולה. הישאר בבית ועקוב אחר התסמינים שלך. התקשר לספק שלך אם מצבך מורע**
+המשך לעקוב אחר התסמינים שלך. אם הם מחמירים, התקשר לספק שירותי הרפואה, קו הייעוץ הקליני או ספק הטלרפואה שלך. 
+הנה כמה צעדים שעשויים לעזור לך להרגיש טוב יותר:
+- הישאר בבית והקפד על מנוחה. 
+- שתה כמויות גדולות של מים ונוזלים צלולים אחרים כדי למנוע אובדן נוזלים (התייבשות).
+- כסה את השיעולים וההתעטשויות שלך. 
+- נקה את ידיך לעתים קרובות.</t>
+  </si>
+  <si>
+    <t>["אני מסכים", "אני לא מסכים"]</t>
+  </si>
+  <si>
+    <t>היכן אתה (הוא) ממוקם?</t>
+  </si>
+  <si>
+    <t>עליך לבחור מיקום כדי להמשיך.</t>
+  </si>
+  <si>
+    <t>היכן בארצות הברית אתה (הוא) ממוקם?</t>
+  </si>
+  <si>
+    <t>האם אתה חולה או מטפל במישהו חולה?</t>
+  </si>
+  <si>
+    <t>האם אתה עונה עבור עצמך או עבור מישהו אחר?</t>
+  </si>
+  <si>
+    <t>שלח</t>
+  </si>
+  <si>
+    <t>["За себя","За другого человека"]</t>
+  </si>
+  <si>
+    <t>["עבורי","עבור מישהו אחר"]</t>
+  </si>
+  <si>
+    <t>["Младше 2 лет",
+    "От 2 до 4 лет",
+    "От 5 до 9 лет",
+    "От 10 до 18 лет",
+    "От 19 до 29 лет",
+    "От 30 до 39 лет",
+    "От 40 до 49 лет",
+    "От 50 до 59 лет",
+    "От 60 до 64 лет",
+    "От 65 до 69 лет",
+    "От 70 до 79 лет",
+    "Старше 80 лет"]</t>
+  </si>
+  <si>
+    <t>["פחות משנתיים",
+    "2-4 שנים",
+    "5-9",
+    "10-18",
+    "19-29",
+    "30-39",
+    "40-49",
+    "50-59",
+    "60-64",
+    "65-69",
+    "70-79",
+    "80 ומעלה"]</t>
+  </si>
+  <si>
+    <t>["Мужской",
+    "Женский",
+    "Другой"]</t>
+  </si>
+  <si>
+    <t>["זכר",
+    "נקבה",
+    "אחר"]</t>
+  </si>
+  <si>
+    <t>[
+        "Симптомов, представляющих угрозу для жизни, не наблюдается",
+        "Сильно учащенное, поверхностное дыхание",
+        "Синюшность губ или лица",
+        "Человек не просыпается или не реагирует на окружающих",
+        "Ребенку настолько беспокоен, что не хочет, чтобы его брали на руки",
+        "Судороги"]</t>
+  </si>
+  <si>
+    <t>[
+        "Симптомов, представляющих угрозу для жизни, не наблюдается",
+        "Судорожные вдохи или неспособность говорить без перевода дыхания (крайне затрудненное дыхание)",
+        "Посинение губ или лица",
+        "Сильная и постоянная боль или чувство сдавленности в груди",
+        "Постоянное сильное головокружение",
+        "Спутанность сознания (или усиление этого симптома, если он присутствовал раньше)",
+        "Бессознательное состояние или крайняя сонливость",
+        "Неразборчивая речь (или усиление этого симптома, если он присутствовал раньше)",
+        "Судороги (если их не было раньше) или непрекращающиеся судороги"]</t>
+  </si>
+  <si>
+    <t>[
+        "Затруднение дыхания от среднего до сильного (неспособность до конца договорить предложение)",
+        "Откашливание крови (более 1 чайной ложки)",
+        "Признаки низкого кровяного давления (чувство холода, бледность, холодный пот, головокружение, слабость вплоть до неспособности стоять)",
+        "Втягивание ребер при каждом вдохе",
+        "Обезвоживание ",
+        "Ничего из перечисленного"]</t>
+  </si>
+  <si>
+    <t>[
+        "Затруднение дыхания от среднего до сильного (неспособность до конца договорить предложение)",
+        "Откашливание крови (более 1 чайной ложки)",
+        "Признаки низкого кровяного давления (чувство холода, бледность, холодный пот, головокружение, слабость вплоть до неспособности стоять)",
+        "Ничего из перечисленного"]</t>
+  </si>
+  <si>
+    <t>[
+        "Жар или лихорадка (озноб, потливость)", 
+        "Одышка (несильная)",
+        "Кашель",
+        "Другое"
+        ]</t>
+  </si>
+  <si>
+    <t>[
+        "Насморк или заложенность носа",
+        "Боль в горле",
+        "Боль в мышцах, ломота в суставах или головная боль",
+        "Усталость или утомляемость",
+        "Тошнота, рвота или понос",
+        "Другое"]</t>
+  </si>
+  <si>
+    <t>[
+    "Хроническое заболевание легких, астма (от средней до тяжелой степени) или курение",
+    "Серьезные заболевания сердца",
+    "Ослабленная иммунная система (на фоне лечения рака, длительного приема стероидов, трансплантации или ВИЧ/СПИД)",
+    "Сильное ожирение (индекс массы тела [ИМТ] 40 и более)",
+    "Фоновые заболевания (диабет, почечная недостаточность или болезнь печени)",
+    "Ничего из перечисленного"
+]</t>
+  </si>
+  <si>
+    <t>["Да","Нет"]</t>
+  </si>
+  <si>
+    <t>["כן","לא"]</t>
+  </si>
+  <si>
+    <t>["В США", "За пределами США"]</t>
+  </si>
+  <si>
+    <t>["ארצות הברית", "מחוץ לארה"ב"]</t>
+  </si>
+  <si>
+    <t>Где вы (или человек, за которого вы отвечаете на вопросы) находитесь?</t>
+  </si>
+  <si>
+    <t>האם אתה חווה אחד מהמצבים הבאים? (סמן כל אפשרות מתאימה)</t>
+  </si>
+  <si>
+    <t>האם אתה חווה אחד מהתסמינים מסכני החיים הבאים?</t>
+  </si>
+  <si>
+    <t>האם אתה חווה אחד מהמצבים הבאים?</t>
+  </si>
+  <si>
+    <t>האם אתה שוהה במתקן טיפול רפואי או במוסד סיעודי לטווח ארוך?</t>
+  </si>
+  <si>
+    <t>בשבועיים האחרונים, האם עבדת או התנדבת בבית חולים, חדר מיון, מרפאה, מתקן טיפול רפואי או מוסד סיעודי לטווח ארוך, שירות אמבולנס, שירותי חירום או כל סביבה רפואית, או טיפלת במטופלים כסטודנט או במסגרת עבודתך?</t>
+  </si>
+  <si>
+    <t>בן כמה אתה?</t>
+  </si>
+  <si>
+    <t>מהו המין שלך?</t>
+  </si>
+  <si>
+    <t>האם אתה חווה אחת מהמחלות/הבעיות הבאות (סמן כל אפשרות מתאימה)?</t>
+  </si>
+  <si>
+    <t>בשבועיים לפני שהרגשת חולה, האם היית במצבים אלה:
+- מגע עם מישהו שאובחן אצלו נגיף הקורונה (COVID-19)
+- שהייה או ביקור במקום התפרצות של COVID-19</t>
+  </si>
+  <si>
+    <t>האם הוא חווה אחד מהמצבים הבאים? (סמן כל אפשרות מתאימה)</t>
+  </si>
+  <si>
+    <t>האם הוא חווה אחד מהתסמינים מסכני החיים הבאים?</t>
+  </si>
+  <si>
+    <t>האם הוא חווה אחד מהמצבים הבאים?</t>
+  </si>
+  <si>
+    <t>האם הוא שוהה במתקן טיפול רפואי או במוסד סיעודי לטווח ארוך?</t>
+  </si>
+  <si>
+    <t>בשבועיים האחרונים, האם הוא עבד או התנדב בבית חולים, חדר מיון, מרפאה, מתקן טיפול רפואי או מוסד סיעודי לטווח ארוך, שירות אמבולנס, שירותי חירום או כל סביבה רפואית, או טיפל במטופלים כסטודנט או במסגרת עבודתו?</t>
+  </si>
+  <si>
+    <t>בן כמה הוא?</t>
+  </si>
+  <si>
+    <t>מהו המין שלו?</t>
+  </si>
+  <si>
+    <t>האם הוא חווה אחת מהמחלות/הבעיות הבאות (סמן כל אפשרות מתאימה)?</t>
+  </si>
+  <si>
+    <t>בשבועיים לפני שהרגיש חולה, האם הוא היה במצבים אלה:
+- מגע עם מישהו שאובחן אצלו נגיף הקורונה (COVID-19)
+- שהייה או ביקור במקום התפרצות של COVID-19</t>
+  </si>
+  <si>
+    <t>הריון</t>
+  </si>
+  <si>
+    <t>[
+        "לא חווה שום תסמין מסכן חיים",
+        "נשימה מהירה או רדודה במיוחד",
+        "שפתיים או פנים כחלחלים",
+        "לא מתעורר או לא מקיים אינטראקציה במצב ערות",
+        "הילד כל-כך נרגז עד שהוא לא רוצה שיחזיקו אותו",
+        "התקפים"]</t>
+  </si>
+  <si>
+    <t>[
+        "לא חווה שום תסמין מסכן חיים",
+        "מתנשף בכבדות או לא יכול לדבר מבלי לעצור את הנשימה (קשיי נשימה חמורים)",
+        "שפתיים או פנים בצבע כחול",
+        "כאב או לחץ עז ומתמיד בחזה",
+        "סחרחורת ו/או ראש מסתובב באופן חמור וקבוע",
+        "התנהגות מבולבלת (מצב חדש או החמרה)",
+        "חסר הכרה או מתקשה מאוד להתעורר",
+        "דיבור לא ברור (מצב חדש או החמרה)",
+        "התקפים חדשים או התקפים שאינם נפסקים"]</t>
+  </si>
+  <si>
+    <t>[
+        "קשיי נשימה בינוניים עד חמורים (לא יכול לומר משפטים מלאים)",
+        "שיעול עם דם (יותר מכפית אחת)",
+        "סימנים ללחץ דם נמוך (תחושת קור, חיוורון, עור לח, ראש מסתובב, חלש מכדי לעמוד)",
+        "הצלעות נמשכות פנימה בכל נשימה (רתיעות)",
+        "התייבשות ",
+        "אף אחת מהאפשרויות לעיל"]</t>
+  </si>
+  <si>
+    <t>[
+        "קשיי נשימה בינוניים עד חמורים (לא יכול לומר משפטים מלאים)",
+        "שיעול עם דם (יותר מכפית אחת)",
+        "סימנים ללחץ דם נמוך (תחושת קור, חיוורון, עור לח, ראש מסתובב, חלש מכדי לעמוד)",
+        "אף אחת מהאפשרויות לעיל"]</t>
+  </si>
+  <si>
+    <t>[
+        "חום או תחושת חום (צמרמורות, הזעה)", 
+        "קוצר נשימה (לא חמור)",
+        "שיעול",
+        "אחר"
+        ]</t>
+  </si>
+  <si>
+    <t>[
+        "נזלת או אף סתום",
+        "כאב גרון",
+        "כאבי שרירים, כאבים בגוף או כאב ראש",
+        "עייפות או תשישות",
+        "בחילה, הקאות או שלשול",
+        "אחר"]</t>
+  </si>
+  <si>
+    <t>[
+    "מחלת ריאות כרונית, אסתמה בינונית או חמורה, או עישון",
+    "מחלות/בעיות לב חמורות",
+    "מערכת חיסונית מוחלשת (טיפול בסרטן, שימוש ממושך בסטרואידים, השתלה או HIV/איידס)",
+    "השמנת יתר חמורה (מדד מסת הגוף [BMI] של 40 ומעלה)",
+    "מחלות/בעיות רקע (סוכרת, אי ספיקת כליות או מחלת כבד)",
+    "אף אחת מהאפשרויות לעיל"
+]</t>
+  </si>
+  <si>
+    <t>ar-sa</t>
+  </si>
+  <si>
+    <t>الرجاء تحديد خيار للمتابعة</t>
+  </si>
+  <si>
+    <t>**يُرجى التحديد حتى أتمكن من مساعدتك عن طريق تقديم مشورة الرعاية.**
+لم تحدد أي خيار. يُرجى البدء مرة أخرى وتحديد خيارات لكل سؤال حتى أتمكن من مساعدتك عن طريق تقديم مشورة الرعاية.</t>
+  </si>
+  <si>
+    <t>**يبدو أنك على ما يرام**
+يعد نظام الفحص الذاتي من فيروس كورونا (Coronavirus) مخصصًا لأولئك الذين قد يكونون مرضى. تعرف على المزيد حول فيروس COVID-19 والإجراءات التي يمكنك اتخاذها للمساعدة في [موقع CDC الإلكتروني] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/index.html).</t>
+  </si>
+  <si>
+    <t>**اتصل بخدمة الطوارئ المحلية لديك - فقد تكون لديك حالة طارئة من الناحية الطبية.**
+اتصل بخدمة الطوارئ المحلية لديك الآن. هناك حاجة إلى وجود عناية طبية فورية. 
+أخبر مشغل خدمة الطوارئ المحلي لديك إذا كنت قد تعاملت مع أي شخص مصاب بفيروس COVID-19 أو إذا كنت قد زرت مؤخرًا منطقة ينتشر فيها فيروس COVID-19.</t>
+  </si>
+  <si>
+    <t>**يعد نظام الفحص الذاتي من فيروس كورونا (Coronavirus) مخصصًا لأولئك الذين تبلغ أعمارهم عامين على الأقل.**
+اتصل بموفر الرعاية الصحية الخاص بطفلك اليوم. أخبره إذا كان طفلك المريض قد تعامل مع أي شخص مصاب بفيروس COVID-19 أو إذا كان قد زار مؤخرًا منطقة ينتشر فيها فيروس COVID-19.</t>
+  </si>
+  <si>
+    <t>**قد تكون هناك حاجة إلى وجود عناية طبية عاجلة. يرجى الذهاب إلى قسم الطوارئ**
+بناء على الأعراض التي تعاني منها، قد تكون هناك حاجة إلى وجود عناية طبية عاجلة. يرجى الذهاب إلى أقرب قسم طوارئ.
+أخبر موظفي الطوارئ إذا كنت قد تعاملت مع أي شخص مصاب بفيروس COVID-19 أو إذا كنت قد زرت مؤخرًا منطقة ينتشر فيها فيروس COVID-19.</t>
+  </si>
+  <si>
+    <t>**نشعر بالحزن لأنك مريض. اتصل بموفر رعاية طبية في غضون 24 ساعة**
+أنت مصاب ببعض الأعراض التي قد تكون مرتبطة بفيروس COVID-19. كما أنك تعاني من الكثير من الحالات المرضية التي قد تعرضك لخطر حدوث مضاعفات أكبر لفيروس COVID-19. اتصل بموفر الرعاية الصحية لديك، أو خط تقديم المشورة الطبية، أو موفر خدمة العلاج الطبي عن بعد في غضون 24 ساعة.  ابدأ في إجراء العزل المنزلي. وهذا يعني أنه عليك البقاء في المنزل ويمكنك مغادرته للحصول على الرعاية الطبية فقط، كما يجب عليك عدم الذهاب إلى العمل، أو المدرسة، أو الأماكن العامة. لا تستخدم المواصلات العامة ولا تتشارك رحلاتك مع أحد. تأكد من تلقي الرعاية إذا شعرت بأن وضعك الصحي يزداد سوءًا
+اتبع هذه الخطوات الآن لمساعدة [خدمة الرعاية المقدمة لأجلك] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+اتبع هذه الخطوات الآن للمساعدة في [حماية الآخرين من الإصابة بالمرض] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).</t>
+  </si>
+  <si>
+    <t>**اتصل بموفر الخدمات الصحية المهنية في مكان عملك فورًا**
+يرجى الاتصال بموفر الخدمات الصحية المهنية في مرفق الرعاية الصحية الخاص بك في أقرب وقت ممكن. 
+أخبر موفر الخدمات الصحية المهنية أنك تعاني من بعض الأعراض التي قد تكون مرتبطة بفيروس COVID-19.</t>
+  </si>
+  <si>
+    <t>**اتصل بموفر رعاية صحية في مرفق الرعاية طويلة الأمد موجود في المكان الذي تعيش فيه**
+قد يعرضك العيش في مرفق رعاية طويلة الأمد أو دار مسنين لخطر الإصابة بمرض شديد بدرجة أعلى. أخبر مقدم الرعاية الموجود في المرفق أنك مريض وتحتاج إلى زيارة موفر خدمات طبية في أقرب وقت ممكن.
+ساعد في حماية الآخرين من الإصابة بالمرض:
+- البقاء في غرفتك وعدم الخروج منها إلا لتلقي الرعاية الطبية
+- تغطية السعال والعطس الصادر منك
+- تنظيف يديك كثيرًا</t>
+  </si>
+  <si>
+    <t>**ابقَ في المنزل واعتنِ بنفسك. اتصل بموفر الخدمات الخاص بك إذا ازدادت حالتك سوءًا**
+نشعر بالحزن لأنك مريض. أنت مصاب بعرض واحد أو أكثر قد يكون مرتبطًا بفيروس COVID-19. ابقَ في المنزل واعتنِ بنفسك. 
+اقرأ [10 طرق للتعامل الأمثل مع صحتك] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) وأنت جالس في منزلك.
+اتبع هذه الخطوات الآن للمساعدة في [حماية الآخرين من الإصابة بالمرض] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html)</t>
+  </si>
+  <si>
+    <t>**ابقَ في المنزل واعتنِ بنفسك في العزل المنزلي. اتصل بموفر رعاية طبية في غضون 24 ساعة**
+نشعر بالحزن لأنك مريض. أنت مصاب بعرض واحد أو أكثر قد يكون مرتبطًا بفيروس COVID-19. ابقَ في المنزل واعتنِ بنفسك. اتصل بموفر الرعاية الصحية لديك، أو خط تقديم المشورة الطبية، أو موفر خدمة العلاج الطبي عن بعد في غضون 24 ساعة. ابدأ في إجراء العزل المنزلي. وهذا يعني أنه عليك البقاء في المنزل ويمكنك مغادرته للحصول على الرعاية الطبية فقط، كما يجب عليك عدم الذهاب إلى العمل، أو المدرسة، أو الأماكن العامة. لا تستخدم المواصلات العامة ولا تتشارك رحلاتك مع أحد. تأكد من تلقي الرعاية إذا شعرت بأن حالتك تزداد سوءًا أو كنت تعتقد أن هناك حالة طارئة.
+اتبع هذه الخطوات الآن لمساعدة [خدمة الرعاية المقدمة لأجلك] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html).
+اتبع هذه الخطوات الآن للمساعدة في [حماية الآخرين من الإصابة بالمرض] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html).
+اقرأ [10 طرق للتعامل الأمثل مع صحتك] (باللغة الإنجليزية)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) واعتنِ بنفسك وأنت جالس في منزلك.</t>
+  </si>
+  <si>
+    <t>**نشعر بالحزن لأنك مريض. ابقَ في المنزل وراقب الأعراض التي لديك. اتصل بموفر الخدمات الخاص بك إذا ازدادت حالتك سوءًا**
+تابع كي تتمكن من مراقبة الأعراض التي لديك. إذا ازدادت حالتك سوءًا، فاتصل بموفر الرعاية الصحية لديك، أو خط تقديم المشورة الطبية، أو موفر خدمة العلاج الطبي عن بعد. 
+إليك بعض الخطوات التي قد تساعد على تحسين حالتك:
+- البقاء في المنزل والراحة. 
+- شرب الكثير من الماء والسوائل الشفافة الأخرى لمنع فقدان السوائل (الجفاف).
+- تغطية السعال والعطس الصادر منك. 
+- تنظيف يديك كثيرًا.</t>
+  </si>
+  <si>
+    <t>["أوافق", "لا أوافق"]</t>
+  </si>
+  <si>
+    <t>أين تمكث (يمكث)؟</t>
+  </si>
+  <si>
+    <t>يجب عليك تحديد موقع للمتابعة.</t>
+  </si>
+  <si>
+    <t>أين تمكث (يمكث) في الولايات المتحدة؟</t>
+  </si>
+  <si>
+    <t>هل أنت مريض أو ترعى شخصًا مريضًا؟</t>
+  </si>
+  <si>
+    <t>هل الإجابات التي تقدمها تخصك أم تخص شخصًا آخر؟</t>
+  </si>
+  <si>
+    <t>إرسال</t>
+  </si>
+  <si>
+    <t>هل أنت مصاب بأيٍّ مما يلي؟ (ضع علامة على أيٍّ من ذلك)</t>
+  </si>
+  <si>
+    <t>هل أنت مصاب بأيٍّ من الأعراض التالية التي تهدد الحياة؟</t>
+  </si>
+  <si>
+    <t>هل أنت مصاب بأيٍّ مما يلي؟</t>
+  </si>
+  <si>
+    <t>هل تعيش في مرفق رعاية طويلة الأمد أو دار مسنين؟</t>
+  </si>
+  <si>
+    <t>في الأسبوعين الماضيين، هل عملتَ أو تطوعتَ في مستشفى، أو غرفة طوارئ أو عيادة، أو مكتب طبي، أو مرفق رعاية طويلة الأمد، أو دار مسنين، أو خدمة إسعاف، أو خدمات المنجدين الأوائل، أو أي مكان للرعاية الصحية، أو رعاية المرضى بصفتك طالبًا أو كان ذلك جزءًا من عملك؟</t>
+  </si>
+  <si>
+    <t>كم يبلغ عمرك؟</t>
+  </si>
+  <si>
+    <t>ما جنسك؟</t>
+  </si>
+  <si>
+    <t>هل أنت مصاب بأيٍّ من الحالات المرضية التالية (ضع علامة على أيٍّ منها)؟</t>
+  </si>
+  <si>
+    <t>خلال الأسبوعين اللذين سبقا شعورك بالمرض، هل:
+- تواصلت مع أي شخص تم تشخيصه بأنه مصاب بفيروس COVID-19
+- تعيش أو تزور مكانًا ينتشر فيه فيروس COVID-19</t>
+  </si>
+  <si>
+    <t>هل هو مصاب بأيٍّ مما يلي؟ (ضع علامة على أيٍّ من ذلك)</t>
+  </si>
+  <si>
+    <t>هل يعاني من أيٍّ من الأعراض التالية التي تهدد الحياة؟</t>
+  </si>
+  <si>
+    <t>هل هو مصاب بأيٍّ مما يلي؟</t>
+  </si>
+  <si>
+    <t>هل يعيش في مرفق رعاية طويلة الأمد أو دار مسنين؟</t>
+  </si>
+  <si>
+    <t>في الأسبوعين الماضيين، هل عمل أو تطوع في مستشفى، أو غرفة طوارئ أو عيادة، أو مكتب طبي، أو مرفق رعاية طويلة الأمد، أو دار مسنين، أو خدمة إسعاف، أو خدمات المنجدين الأوائل، أو أي مكان للرعاية الصحية، أو رعاية المرضى بصفته طالبًا أو كان ذلك جزءًا من عمله؟</t>
+  </si>
+  <si>
+    <t>كم يبلغ عمره؟</t>
+  </si>
+  <si>
+    <t>ما جنسه؟</t>
+  </si>
+  <si>
+    <t>هل هو مصاب بأيٍّ من الحالات المرضية التالية (ضع علامة على أيٍّ منها)؟</t>
+  </si>
+  <si>
+    <t>خلال الأسبوعين اللذين سبقا شعوره بالمرض، هل:
+- تواصلت مع أي شخص تم تشخيصه بأنه مصاب بفيروس COVID-19
+- تعيش أو تزور مكانًا ينتشر فيه فيروس COVID-19</t>
+  </si>
+  <si>
+    <t>الحمل</t>
+  </si>
+  <si>
+    <t>["نعم","لا"]</t>
+  </si>
+  <si>
+    <t>["الولايات المتحدة", "خارج الولايات المتحدة"]</t>
+  </si>
+  <si>
+    <t>["تخصني","تخص شخصًا آخر"]</t>
+  </si>
+  <si>
+    <t>["أقل من عامين",
+    "2 إلى 4 أعوام",
+    "5-9",
+    "10-18",
+    "19-29",
+    "30-39",
+    "40-49",
+    "50-59",
+    "60-64",
+    "65-69",
+    "70-79",
+    "أكبر من 80 عامًا"]</t>
+  </si>
+  <si>
+    <t>["ذكر",
+    "أنثى",
+    "غير ذلك"]</t>
+  </si>
+  <si>
+    <t>[
+        "لا تعاني من أيٍّ من الأعراض التالية التي تهدد الحياة",
+        "تحدث لك زيادة كبيرة في سرعة التنفس أو تصاب بحالة تنفس ضعيف",
+        "تحول لون الشفاه والوجه إلى لون مائل للزُرقة",
+        "عدم الاستيقاظ أو التفاعل عند الاستيقاظ",
+        "سرعة الغضب لدرجة تصل لأن يرفض الطفل أن يحمله",
+        "نوبات صرع"]</t>
+  </si>
+  <si>
+    <t>[
+        "لا تعاني من أيٍّ من الأعراض التالية التي تهدد الحياة",
+        "تلهث من أجل الحصول على الهواء أو لا تستطيع التحدث دون التقاط أنفاسك (تنفس صعب للغاية)",
+        "تحول لون الشفاه والوجه إلى لون أزرق",
+        "ألم أو ضغط شديد ومستمر في الصدر",
+        "دوار أو دوخة شديدة ومستمرة",
+        "تصرف بارتباك (جديد أو متفاقم)",
+        "فقدان الوعي أو صعوبة بالغة في الاستيقاظ",
+        "حدوث كلام متداخل (جديد أو متفاقم)",
+        "نوبة صرع جديدة أو نوبات صرع لا تتوقف"]</t>
+  </si>
+  <si>
+    <t>[
+        "وجود صعوبة في التنفس بدرجات تتراوح من المتوسطة إلى الشديدة",
+        "حدوث سعال يرافقه دم (بمقدار أكثر من ملعقة صغيرة)",
+        "علامات لانخفاض ضغط الدم (البرد، واللون الشاحب، والبشرة المبللة بالعرق، والشعور بالدوخة، وحدوث ضعف شديد لدرجة عدم القدرة على الوقوف)",
+        "سحب الضلوع إلى الداخل مع كل عملية تنفس (انكماش)",
+        "الجفاف ",
+        "لا شيء مما سبق"]</t>
+  </si>
+  <si>
+    <t>[
+        "وجود صعوبة في التنفس بدرجات تتراوح من المتوسطة إلى الشديدة",
+        "حدوث سعال يرافقه دم (بمقدار أكثر من ملعقة صغيرة)",
+        "علامات لانخفاض ضغط الدم (البرد، واللون الشاحب، والبشرة المبللة بالعرق، والشعور بالدوخة، وحدوث ضعف شديد لدرجة عدم القدرة على الوقوف)",
+        "لا شيء مما سبق"]</t>
+  </si>
+  <si>
+    <t>[
+        "الحمى أو الحالة المحمومة (قشعريرة، تعرق)", 
+        "ضيق في التنفس (غير شديد)",
+        "السعال",
+        "غير ذلك"
+        ]</t>
+  </si>
+  <si>
+    <t>[
+        "سيلان الأنف أو انسداده",
+        "التهاب الحلق",
+        "آلام في العضلات، أو آلام في الجسم، أو صداع",
+        "التعب أو الإعياء",
+        "الغثيان أو القيء، أو الإسهال",
+        "غير ذلك"]</t>
+  </si>
+  <si>
+    <t>[
+    "مرض الرئة المزمن، أو الربو من الدرجات المعتدلة إلى الشديدة، أو التدخين",
+    "أمراض قلب خطيرة",
+    "جهاز المناعة الضعيف (علاج السرطان، أو الاستخدام المطول للإسترويدات، أو الزرع، أو فيروس نقص المناعة البشرية / الإيدز)",
+    "البدانة المفرطة (مؤشر كتلة الجسم [BMI] أكبر من أو يساوي 40)",
+    "الحالات المرضية الكامنة (مرض السكري، أو الفشل الكلوي، أو أمراض الكبد)",
+    "لا شيء مما سبق"
+]</t>
+  </si>
+  <si>
+    <t>am-et</t>
+  </si>
+  <si>
+    <t>ለመቀጠል እባክዎ ሀገር ይምረጡ</t>
+  </si>
+  <si>
+    <t>**ስለ መኪና ምክር መስጠት እችል ዘንድ እባክዎ ይምረጡ።**
+ምርጫዎን አላደረጉም። እባክዎ እንደገና ይጀምሩ እና ስለ መኪና ምክር መስጠት እችል ዘንድ ለእያንዳንዱ ጥያቄ አማራጭ ይምረጡ።</t>
+  </si>
+  <si>
+    <t>**መልካም እየተሰማዎት ይመስላል**
+ይህ የኮሮናቫይረስ (coronavirus) ራስፈታሽ ስርዓት ታምመው ሊሆን የሚችሉ ሰዎች የሚጠቀሙበት ነው። ስለ COVID-19 እና ምን ማድረግ እንደሚችሉ [CDC website] ላይ የበለጠ ይረዱ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/index.html)።</t>
+  </si>
+  <si>
+    <t>**ለአካባቢዎ የአደጋ ጊዜ አገልግሎት ይደውሉ - አስቸኳይ ህክምና ሊያስፈልግዎት ይችላል።**
+ለአካባቢዎ የአደጋ ጊዜ አገልግሎት ይደውሉ። አስቸኳይ ህክምና ያስፈልጋል። 
+COVID-19 ከያዘው ሰው ጋር ግንኙነት የነበረዎት እንደሆነ ወይም COVID-19 እየተስፋፋበት ባለ አካባቢ በቅርቡ ተገኝተው ከሆነ ለአካባቢው የአደጋ ጊዜ አገልግሎት ሰራተኛ ይንገሩ።</t>
+  </si>
+  <si>
+    <t>**ይቅርታ፣ ይህ የኮሮናቫይረስ (Coronavirus) ራስፈታሽ ስርዓት የሚሰራው 2 ዓመታት ወይም ከዚያ በላይ ለሆናቸው ሰዎች የታሰበ ነው**
+ለልጅዎ የጤና እንክብካቤ አቅራቢ ዛሬውኑ ይደውሉ። የታመመ ልጅዎ COVID-19 ካለበት ሰው ጋር ግንኙነት እንደነበረው/እንደነበራት ወይም በቅርቡ COVID-19 በተስፋፋባቸው አካባቢዎች ተገኝቶ/ታ እንደነበር ይንገሯቸው።</t>
+  </si>
+  <si>
+    <t>**አስቸኳይ የህክምና እርዳታ ሊያስፈልግ ይችላል። እባክዎ ወደ የድንገተኛ ዲፓርትመንት ይሂዱ**
+የእርስዎን ምልክቶች መነሻ በማድረግ፣ አስቸኳይ የህክምና እርዳታ ሊያስፈልግ ይችላል። እባክዎ በቅርብ ወደሚገኝ የድንገተኛ ዲፓርትመንት ይሂዱ
+እርስዎ COVID-19 ካለበት ሰው ጋር ግንኙነት እንደነበረዎት ወይም በቅርቡ COVID-19 በተስፋፋባቸው አካባቢዎች ሂደው እንደነበር ለድንገተኛ ጊዜ ሰራተኛ ይንገሩ።</t>
+  </si>
+  <si>
+    <t>**ስላመመዎት እናዝናለን። በ24 ሰዓታት ውስጥ ህክምና ያግኙ**
+ከCOVID-19 ጋር ሊያያዙ የሚችሉ የተወሰኑ ምልክቶች አሉብዎት። በተጨማሪም ከCOVID-19 ጋር በተያያዘ ውስብስብ ጉዳይ በመፍጠር ክፍ ያለ ስጋት ሊፈጥርብዎት የሚችል የጤና ሁኔታ አለብዎት። በ24 ሰዓታት ውስጥ ለጤና እንክብካቤ አቅራቢዎ፣ ለህክምና ምክር ስልክ፣ ወይም በእርቀት የህክምና አገልግሎት አቅራቢ ይደውሉ።  የቤት ውስጥ እራስን መለየት ይጀምሩ። ይህ ማለት የህክምና እንክባቤ ለማግነት ካልሆነ ወደ ስራ፣ ትምህርት ቤት ወይም ህዝብ የሚገኝባቸው አካባቢዎች አይሂዱ። የህዝብ ትራንስፖርት ወይም የጋራ የመኪና አገልግሎት አይጠቀሙ። የባሰ ስሜት ከተሰማዎት የጤና እንክብካቤ ማግኘትዎን እርግጠኛ ይሁኑ
+አሁን [እራስዎን የመንከባከብ] እገዛ ለማድረግ እነዚህን ቅደም ተከተሎች ይከተሉ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html)።
+አሁን [ሌሎች ከበሽታው እንዲጠበቁ] ለማገዝ እነዚህን ቅደም ተከተሎችን ይከተሉ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html)።</t>
+  </si>
+  <si>
+    <t>**ከስራ ቦታዎ የስራ ላይ የጤና እንክብካቤ ባለሙያዎን በፍጥነት ያነጋግሩ**
+እባክዎ በተቻለ ፍጥነት ከጤና እንክብካቤ አገልግሎት ማቅራቢያ የስራ ላይ የጤና እንክብካቤ አቅራቢ ያነጋግሩ። 
+ከCOVID-19 ጋር የተያያዘ ሊሆኑ የሚችሉ የተወሰኑ ምልክቶች የታዩብዎት መሆኑን ለስራ ላይ የጤና እንክብካቤ አቅራቢው ያሳውቁ።</t>
+  </si>
+  <si>
+    <t>**የሚኖሩበት የእረጅም ጊዜ እንክብካቤ ተቋም ውስጥ የጤና ባለሙያ ያነጋግሩ**
+በእረጅም ጊዘ የእንክብካቤ ተቋም ወይም የነርሲንግ ቤት ውስጥ መኖር የከፋ ህመም የመከሰት ከፍተኛ ስጋት ሊያስከትልብዎት ይችላል። የታመሙ መሆኑን እና በአስቸኳ የህክምና አገልግሎት ማግኘት እንዳለብዎት በተቋሙ ውስጥ ተንከባካቢዎን ያሳውቁ።
+ሌሎች እንዳይታመሙ ጥንቃቄ ያድርጉ፦
+- የህክምና እንክብካቤ ለማግኘት ካልሆነ በስተቀር በክፍልዎ ውስጥ ይቆዩ
+- በሚስሉ እና በሚያስነጥሱ ጊዜ አፍ እና አፍንጫዎን ይሸፍኑ
+- እጅዎን በየጊዜው ይታጠቡ</t>
+  </si>
+  <si>
+    <t>**ከቤት ይሁኑ እና እራስዎን ይንከባከቡ። እየተባባሰ ከሄደ ለጤና አገልግሎት አቅራቢዎ ይደውሉ**
+ስለታመሙ እናዝናለን። ከCOVID-19 ጋር ሊያያዙ የሚችሉ አንድ ወይም ከዚያ በላይ ምልክቶች አሉብዎት። ከቤት ይሁኑ እና እራስዎን ይንከባከቡ። 
+ከቤት ውስጥ የእርስዎን [ጤና ለመጠበቅ የሚረዱ 10 መንገዶች] ያንብቡ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html)።
+አሁን [ሌሎች ከበሽታው እንዲጠበቁ] ለማገዝ እነዚህን ቅደም ተከተሎችን ይከተሉ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html)</t>
+  </si>
+  <si>
+    <t>**ከቤት ይሁኑ እና በቤት ውስጥ እራስን መለያ እራስዎን ይንከባከቡ። በ24 ሰዓታት ውስጥ ህክምና ያግኙ**
+ስለታመሙ እናዝናለን። ከCOVID-19 ጋር ሊያያዙ የሚችሉ አንድ ወይም ከዚያ በላይ ምልክቶች አሉብዎት። ከቤት ይሁኑ እና እራስዎን ይንከባከቡ። በ24 ሰዓታት ውስጥ ለጤና እንክብካቤ አቅራቢዎ፣ ለህክምና ምክር ስልክ፣ ወይም በእርቀት የህክምና አገልግሎት አቅራቢ ይደውሉ። የቤት ውስጥ እራስን መለየት ይጀምሩ። ይህ ማለት የህክምና እንክባቤ ለማግነት ካልሆነ ወደ ስራ፣ ትምህርት ቤት ወይም ህዝብ የሚገኝባቸው አካባቢዎች አይሂዱ። የህዝብ ትራንስፖርት ወይም የጋራ የመኪና አገልግሎት አይጠቀሙ። እየባሰብዎት ከሄደ ወይም አስቸኳይ እንደሆነ ከተረዱ ህክምና ማግኘትዎን እርግጠኛ ይሁኑ።
+አሁን [እራስዎን የመንከባከብ] እገዛ ለማድረግ እነዚህን ቅደም ተከተሎች ይከተሉ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html)።
+አሁን [ሌሎች ከበሽታው እንዲጠበቁ] ለማገዝ እነዚህን ቅደም ተከተሎችን ይከተሉ (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/steps-when-sick.html)።
+ከቤት ውስጥ እራስዎን የሚንከባከቡባቸው [10 መንገዶችን] (በእንግሊዝኛ)(https://www.cdc.gov/coronavirus/2019-ncov/if-you-are-sick/caring-for-yourself-at-home.html) ያግኙ።</t>
+  </si>
+  <si>
+    <t>**ስለታመሙ እናዝናለን። ከቤትዎ ይሁኑ እና ምልክቶችዎን ይከታተሉ። እየተባባሰ ከሄደ ለጤና አገልግሎት አቅራቢዎ ይደውሉ**
+ምልክቶችዎን መከታተልዎን ይቀጥሉ። እየባሰብዎት ከሄደ፣ ለህክምና አገልግሎት አቅራቢዎ፣ ለህክምና ምክር አገልግሎት ስልክ፣ ወይም ከእርቀት የህክምና አገልግሎት አቅራቢ ይደውሉ። 
+መሻሻል እንዲኖር ሊያደርጓቸው የሚችሉ ተግባሮች እዚህ ቀርበዋል፦
+- ከቤት ይሁን እና እረፍት ያግኙ። 
+- የፈሳሽ መቀነስ (ዲሃይድሬሽን) እንዳይፈጠር በቂ ውሃ እና ሌሎች ንጹህ መጠጦችን ይጠጡ።
+- በሚስሉ እና በሚያስነጥሱ ጊዜ አፍ እና አፍንጫዎን ይሸፍኑ። 
+- እጅዎን በየጊዜው ይታጠቡ።</t>
+  </si>
+  <si>
+    <t>["እስማማለሁ", "አልስማማም"]</t>
+  </si>
+  <si>
+    <t>እርስዎ (እርሳቸው) የት ነው ያሉት?</t>
+  </si>
+  <si>
+    <t>ለመቀጠል ቦታ መምረጥ አለብዎት።</t>
+  </si>
+  <si>
+    <t>ዩናይትድ ስቴትስ ውስጥ የት ነው የሚገኙት?</t>
+  </si>
+  <si>
+    <t>አሞዎታል፣ ወይስ ለሌላ በሽተኛ እንክብካቤ እያደረጉ ነው?</t>
+  </si>
+  <si>
+    <t>ምላሽ እየሰጡ ያሉት ለእራስዎ ነው ወይስ ለሌላ ሰው?</t>
+  </si>
+  <si>
+    <t>ያስገቡ</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ውስጥ በእርስዎ ላይ የታዩ ምልክቶች አሉ? (የሚመለከትዎን ሁሉንም ይምረጡ)</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት በህይወት ላይ ስጋት የጋረጡ ስጋቶች አሉብዎት?</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ውስጥ በእርስዎ ላይ የታዩ ምልክቶች አሉ?</t>
+  </si>
+  <si>
+    <t>የሚኖሩት የእረጅም ጊዜ የእንክብካቤ ተቋም ወይም የነርሲንግ ቤት ውስጥ ነው?</t>
+  </si>
+  <si>
+    <t>ባለፉት ሁለት ሳምንታት ውስጥ በሆስፒታል፣ በድንገተኛ ክፍል፣ በክሊኒክ፣ በህክምና ተቋም ቢሮ፣ በእረጅም ጊዜ የእንክብካቤ ማዕከል ወይም የነርሲንግ ቤት፣ የአምቡላንስ አገልግሎት፣ የመጀመሪያ ምላሽ ሰጪ አገልግሎቶች፣ ወይም በማንኛውም የጤና እንክብካቤ መዋቅር ውስጥ ሰርተዋል፣ ወይም እንደ ተማሪ ወይም የስራዎ አካል በመሆኑ በሽተኞችን የመንከባከብ ስራ ሰርተዋል?</t>
+  </si>
+  <si>
+    <t>እድሜዎ ስንት ነው?</t>
+  </si>
+  <si>
+    <t>ጾታዎ ምንድን ነው?</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ሁኔታዎች እርስዎን የሚገልጹ ነበሩ (የሚመለከትዎ ላይ ምልክት ያድርጉ)</t>
+  </si>
+  <si>
+    <t>ህመም ከመሰማቱ ከሁለት ሳምንታት በፊት፣ እርስዎ፦
+- በCOVID-19 እንደተጠቃ ከታወቀ ሰው ጋር ግንኙነት ነበረ
+- COVID-19 ከተስፋፋባቸው ቦታዎች ይኖሩ ነበር ወይም ጉብኝት አድርገዋል</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ውስጥ እነርሱን የሚመለከት ነበር? (የሚመለከትዎን ሁሉንም ይምረጡ)</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት በህይወት ላይ ስጋት የጋረጡ ስጋቶች እየገጠሟቸው ያሉ ምልክቶች አሉ?</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ውስጥ እነርሱን የሚመለከት ነበር?</t>
+  </si>
+  <si>
+    <t>ነዋሪነታቸው ቦታ የእረጅም ጊዜ የእንክብካቤ ተቋም ወይም የነርሲንግ ቤት ውስጥ ነው?</t>
+  </si>
+  <si>
+    <t>ባለፉት ሁለት ሳምንታት ውስጥ በሆስፒታል፣ በድንገተኛ ክፍል፣ በክሊኒክ፣ በህክምና ተቋም ቢሮ፣ በእረጅም ጊዜ የእንክብካቤ ማዕከል ወይም የነርሲንግ ቤት፣ የአምቡላንስ አገልግሎት፣ የመጀመሪያ ምላሽ ሰጪ አገልግሎቶች፣ ወይም በማንኛውም የጤና እንክብካቤ መዋቅር ውስጥ ሰርተው ነበር፣ ወይም እንደ ተማሪ ወይም የስራቸው አካል በሽተኞችን የመንከባከብ ስራ ሰርተዋል?</t>
+  </si>
+  <si>
+    <t>እድሜያቸው ስንት ነው?</t>
+  </si>
+  <si>
+    <t>ጾታቸው ምንድን ነው?</t>
+  </si>
+  <si>
+    <t>ከሚከተሉት ሁኔታዎች እርሳቸውን የሚገልጹ አሉ (የሚመለከታቸው ላይ ምልክት ያድርጉ)</t>
+  </si>
+  <si>
+    <t>ህመም ከመሰማቱ ከሁለት ሳምንታት በፊት፦
+- በCOVID-19 እንደተጠቃ ከታወቀ ሰው ጋር ግንኙነት ነበረ
+- COVID-19 ከተስፋፋባቸው ቦታዎች ይኖሩ ነበር ወይም ጉብኝት አድርገዋል</t>
+  </si>
+  <si>
+    <t>እርግዝና</t>
+  </si>
+  <si>
+    <t>["አዎ","አይ"]</t>
+  </si>
+  <si>
+    <t>["ዩናይትድ ስቴትስ", "ከዩናይትድ ስቴትስ ውጭ"]</t>
+  </si>
+  <si>
+    <t>["ለእራሴ","ለሌላ ሰው"]</t>
+  </si>
+  <si>
+    <t>["ከ2 ዓመት በታች ዕድሜ",
+    "2-4 ዓመት",
+    "5-9",
+    "10-18",
+    "19-29",
+    "30-39",
+    "40-49",
+    "50-59",
+    "60-64",
+    "65-69",
+    "70-79",
+    "80+"]</t>
+  </si>
+  <si>
+    <t>["ወንድ",
+    "ሴት",
+    "ሌላ"]</t>
+  </si>
+  <si>
+    <t>[
+        "በህይወት ላይ ስጋት የጋረጡ ምልክቶች የሉም",
+        "በጣም ፈጣን እና ከላይ ከላይ መተንፈስ",
+        "የከንፈሮች ወይም የፊት ወደ ሰማያዊነት መቀየር",
+        "እንቅልፍ ላይ ሳይሆን/ሳትሆን አለመንቀሳቀስ ወይም መስተጋብር አለመፍጠር",
+        "ህጻኑ/ኗ በጣም ከመታመሙ/ሟ የተነሳ ለመታቀፍ አለመፈለግ",
+        "መንቀጥቀጥ"]</t>
+  </si>
+  <si>
+    <t>[
+        "በህይወት ላይ ስጋት የጋረጡ ምልክቶች የሉም",
+        "አየር ለማግኘት በሚሰማ ድምጽ አየር መሳብ፣ ወይም ትንፋሽ ሳይያዝ መናገር አለመቻል (ለመተንፈስ እጅግ በጣም መቸገር)",
+        "የከንፈሮች እና የፊት ወደሰማያዊነት መቀየር",
+        "ከደረት ላይ ከባድ እና የማያቋረጥ ህመም",
+        "ከባድ እና የማይቋረጥ መፍሰዝ ወይም የጭንቅላት መቅለል",
+        "የመምታታት ስሜት ማሳየት (አዲስ ወይም እየተባባሰ የሄደ)",
+        "እራስን አለማወቅ ወይም ለመንቃት በጣም መቸገር",
+        "የተኮላተፈ ንግግር (አዲስ ወይም እየተባባሰ የሄደ)",
+        "አዲስ የመንቀጥቀጥ ወይም የማይቋረጥ መንቀጥቀጥ"]</t>
+  </si>
+  <si>
+    <t>[
+        "መጠነኛ ወይም ከባድ የመተንፈስ ችግር (ሙሉ ዓረፍተ ነገር ለመናገር አለመቻል)",
+        "በሳል ወቅት ደም መውጣት (1 የሻይ ማንኪያ በላይ የሚሆን)",
+        "የዝቅተኛ ደም መጠን ምልክቶች (የቅዝቃዜ፣ የመገርጣት፣ የረጠበ እና ቀዝቃዛ ቆዳ፣ የጭንቅላት መቅለል፣ ለመቆም እስከመቸገር ድረስ መድከም)",
+        "በእያንዳንዱ ትንፋሽ የጎድ አጥንቶች ወደ ውስጥ መሳብ (መኮማተሮች)",
+        "የሰውነት ፈሳሽ መቀነስ ",
+        "ከላይ የቀረቡት ሁሉም አይመለከቱኝም"]</t>
+  </si>
+  <si>
+    <t>[
+        "መጠነኛ ወይም ከባድ የመተንፈስ ችግር (ሙሉ ዓረፍተ ነገር ለመናገር አለመቻል)",
+        "በሳል ወቅት ደም መውጣት (1 የሻይ ማንኪያ በላይ የሚሆን)",
+        "የዝቅተኛ ደም መጠን ምልክቶች (የቅዝቃዜ፣ የመገርጣት፣ የረጠበ እና ቀዝቃዛ ቆዳ፣ የጭንቅላት መቅለል፣ ለመቆም እስከመቸገር ድረስ መድከም)",
+        "ከላይ የቀረቡት ሁሉም አይመለከቱኝም"]</t>
+  </si>
+  <si>
+    <t>[
+        "ትኩሳት እና የሙቀት ስሜት (ብርድ ብርድ ማለት፣ ማላብ)", 
+        "የትንፋሽ ማጠር (ከባድ ያልሆነ)",
+        "ሳል",
+        "ሌላ"
+        ]</t>
+  </si>
+  <si>
+    <t>[
+        "የአፍንጫ ፈሳሽ ወይም ማፈን",
+        "የጉሮሮ መቁሰል",
+        "የጡንቻ ህመም፣ የሰውነት ህመም፣ ራስ ምታት",
+        "መድከም ወይም የሰውነት መጣመን",
+        "ማቅለሽለሽ፣ ማስታወክ፣ ተቅማጥ",
+        "ሌላ"]</t>
+  </si>
+  <si>
+    <t>[
+    "ተደጋጋሚ የሳምንባ ህመም፣ ከመካከለኛ እስከ ከፍተኛ አስም፣ ወይም ማጨስ",
+    "ከባድ የልብ ሁኔታ",
+    "ደካማ የበሽታ መከላከል ስርዓት (የካንሰር ህክምና፣ የተራዘመ የስቴሮይድ ተጠቃሚ፣ የአካል ንቅለ ተከላ ወይም ኤችአይቪ/ኤድስ)",
+    "ከባድ ውፍረት(የሰውነት ክብደት ጠቋሚ [BMI] ከ40 በላይ)",
+    "የቆየ ሁኔታ (ስኳር፣ የኩላሊት አለመስራት፣ ወይም የጉበት በሽታ)",
+    "ከላይ የቀረቡት ሁሉም አይመለከቱኝም"
+]</t>
   </si>
 </sst>
 </file>
@@ -452,12 +1424,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,20 +1774,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="89.875" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,8 +1801,20 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,8 +1824,20 @@
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="378" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,8 +1847,20 @@
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +1870,20 @@
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +1893,20 @@
       <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,8 +1916,20 @@
       <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,8 +1939,20 @@
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="189" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,8 +1962,20 @@
       <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +1985,20 @@
       <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +2008,20 @@
       <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,8 +2031,20 @@
       <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,8 +2054,20 @@
       <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -954,8 +2077,20 @@
       <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -965,8 +2100,20 @@
       <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -976,8 +2123,20 @@
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -987,8 +2146,20 @@
       <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -998,8 +2169,20 @@
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1009,8 +2192,20 @@
       <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1020,8 +2215,20 @@
       <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1031,8 +2238,20 @@
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1042,8 +2261,20 @@
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1053,8 +2284,20 @@
       <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,8 +2307,20 @@
       <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +2330,20 @@
       <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1086,8 +2353,20 @@
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1097,8 +2376,20 @@
       <c r="C26" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1108,8 +2399,20 @@
       <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1119,8 +2422,20 @@
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1130,8 +2445,20 @@
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1141,8 +2468,20 @@
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1152,8 +2491,20 @@
       <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1163,8 +2514,20 @@
       <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1174,8 +2537,20 @@
       <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1185,8 +2560,20 @@
       <c r="C34" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1196,8 +2583,20 @@
       <c r="C35" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1207,8 +2606,20 @@
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1218,8 +2629,20 @@
       <c r="C37" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1229,8 +2652,20 @@
       <c r="C38" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1240,8 +2675,20 @@
       <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1251,8 +2698,20 @@
       <c r="C40" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1262,8 +2721,20 @@
       <c r="C41" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1273,8 +2744,20 @@
       <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1284,8 +2767,20 @@
       <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1295,8 +2790,20 @@
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1306,8 +2813,20 @@
       <c r="C45" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1317,8 +2836,20 @@
       <c r="C46" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1328,8 +2859,20 @@
       <c r="C47" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1339,8 +2882,20 @@
       <c r="C48" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1350,8 +2905,20 @@
       <c r="C49" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1361,8 +2928,20 @@
       <c r="C50" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1371,6 +2950,18 @@
       </c>
       <c r="C51" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
